--- a/Costs.xlsx
+++ b/Costs.xlsx
@@ -27,13 +27,13 @@
     <t>FNB Cards</t>
   </si>
   <si>
-    <t xml:space="preserve">Group Crime </t>
-  </si>
-  <si>
     <t>Risk and Comp</t>
   </si>
   <si>
     <t>Random Data</t>
+  </si>
+  <si>
+    <t>Group Crime</t>
   </si>
 </sst>
 </file>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -588,78 +588,78 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>44927</v>
+        <v>44531</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E2">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>44958</v>
+        <v>44562</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>44986</v>
+        <v>44593</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>45017</v>
+        <v>44621</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>34</v>
@@ -667,154 +667,375 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>45047</v>
+        <v>44652</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>45078</v>
+        <v>44682</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E7">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>45108</v>
+        <v>44713</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E8">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>45139</v>
+        <v>44743</v>
       </c>
       <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>76</v>
+      </c>
+      <c r="D9">
         <v>45</v>
       </c>
-      <c r="C9">
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>66</v>
-      </c>
       <c r="E9">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>45170</v>
+        <v>44774</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C10">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E10">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>45200</v>
+        <v>44805</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C11">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D11">
+        <v>68</v>
+      </c>
+      <c r="E11">
         <v>56</v>
-      </c>
-      <c r="E11">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>45231</v>
+        <v>44835</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>45261</v>
+        <v>44866</v>
       </c>
       <c r="B13">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>76</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B15">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B17">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>76</v>
+      </c>
+      <c r="E18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B19">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>65</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B20">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>87</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B21">
+        <v>86</v>
+      </c>
+      <c r="C21">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>66</v>
+      </c>
+      <c r="E22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B23">
+        <v>67</v>
+      </c>
+      <c r="C23">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B24">
+        <v>57</v>
+      </c>
+      <c r="C24">
+        <v>87</v>
+      </c>
+      <c r="D24">
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B25">
+        <v>97</v>
+      </c>
+      <c r="C25">
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B26">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>34</v>
+      </c>
+      <c r="E26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
         <v>45292</v>
       </c>
-      <c r="B14">
+      <c r="B27">
         <v>34</v>
       </c>
-      <c r="C14">
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="D27">
         <v>33</v>
       </c>
-      <c r="E14">
+      <c r="E27">
         <v>33</v>
       </c>
     </row>
